--- a/time_log.xlsx
+++ b/time_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34754e9af95e6a34/Desktop/hw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Desktop\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC1048E32198633C5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08AA6582-7515-4F13-B21C-7AD1FC753814}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3A1F1-DFBE-4726-89FE-3235AC952ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>Downloaded Git, still have no idea what it is or what to do with it. I realized I can just add the xlsx file to my GitHub repository so I am hoping that's correct</t>
+  </si>
+  <si>
+    <t>Started working on the app</t>
+  </si>
+  <si>
+    <t>Started working on the main page with the balance. So far getting the hang of Xcode. Got the top of the page icons complete as well as the logo in the middle.</t>
+  </si>
+  <si>
+    <t>Learning how to use "buttons"</t>
+  </si>
+  <si>
+    <t>Making buttons to bring up other screens in Xcode was more challanging than I thought so I spent quite some time reading and watching videos on how they work.</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Main page kept showing a black recangle on the top of the screen and I couldn't figure out where the Zstack should go in the code.</t>
+  </si>
+  <si>
+    <t>Greeting message</t>
+  </si>
+  <si>
+    <t>The greeting message on the main screen has to say good morning, afternoon, and evening based on time of day. I was able to figoure out how to make it behave like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation </t>
+  </si>
+  <si>
+    <t>I was able to make the buttons be able to take the user to the corresponding page. Finding the fucntion to do that wasn't the issue but it kept resizing everything and I spent a while figuring that out. Turns out I had an extra "Spacer()" written and an extra "}"</t>
   </si>
 </sst>
 </file>
@@ -210,13 +240,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D7" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D12" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -495,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +634,76 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time_log.xlsx
+++ b/time_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Desktop\hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34754e9af95e6a34/Desktop/hw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3A1F1-DFBE-4726-89FE-3235AC952ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{74E3A1F1-DFBE-4726-89FE-3235AC952ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05211DBB-174E-437D-8858-38D3C5CC43D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Creating Design Document</t>
   </si>
   <si>
@@ -114,6 +111,69 @@
   </si>
   <si>
     <t>I was able to make the buttons be able to take the user to the corresponding page. Finding the fucntion to do that wasn't the issue but it kept resizing everything and I spent a while figuring that out. Turns out I had an extra "Spacer()" written and an extra "}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research </t>
+  </si>
+  <si>
+    <t>I needed to implement a tab on the bottom of the screen with buttons that take you to different screens. Those screens don't need to do anything but I still need that tab there. CodeWithChris on YouTube does great tutorials on Xcode functionalities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing the "TabView" </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Research on Xcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watched a couple of videos on tips and tricks on Xcode because there's times I need a certain option or open a setting and I can't find it because I don't know everything about the program. </t>
+  </si>
+  <si>
+    <t>Finishing the homePage</t>
+  </si>
+  <si>
+    <t>All that was left for homePage is figure out how to design card stacks. It was getting too messy doing it all in homePageView so I decided to make another view called CardView and just make the card in there and in homePageView just write CardView to put it in the home page. The reason it took so long is i didn't know how to bring up the preview on the right and i had to kep going back and forth between homePageView and CardView to see what i was doing.</t>
+  </si>
+  <si>
+    <t>Research on menus in Xcode</t>
+  </si>
+  <si>
+    <t>I noticed that the sending page had some parts to it that I didn't know how to do like the blue rectangle that moves to which tab is selected.</t>
+  </si>
+  <si>
+    <t>Worked on Send and Deposit pages</t>
+  </si>
+  <si>
+    <t>Started working on the send pagePageView but realized it was more difficult than I thought so I decided to finish the depositPageView first and save the harder and more time consuming things for last.</t>
+  </si>
+  <si>
+    <t>Finished the Deposit page</t>
+  </si>
+  <si>
+    <t>Actually a lot easier than what was shown in videos. It's all built into Xcode so all I had to do was just call the TabView function and put all the buttons I wanted in ".tabItem" along with the text and Xcode just automatically puts the text under the image for each item. Annoyingly i couldn't name the view "TabView" so i just named it "MainView" since TabView is already a built in Xcode function.</t>
+  </si>
+  <si>
+    <t>Went back to finish Send page</t>
+  </si>
+  <si>
+    <t>The main thing was changing the default back button to the "cancel" on the right side. After some research I as able to figure out that where I put the NavigationLink, I had to add a line that hides the back button.</t>
+  </si>
+  <si>
+    <t>What I had left for the sendPageView was to transition between "Pay" and "Payments due" tabs. My friend helped me by showing me how if I create a var and set it to 0 I can later set that variable equal to 1 or 0 depending on which tab is selected. It's just one big if/else statement.</t>
+  </si>
+  <si>
+    <t>Small details</t>
+  </si>
+  <si>
+    <t>Added some animations to the tab select on the sendPageView. Fixed some spelling and colors that weren't showing up in the simulation.</t>
+  </si>
+  <si>
+    <t>Looked over the code</t>
+  </si>
+  <si>
+    <t>Looked over everything made sure everything worked in the simulation and nothing was overlapping or anything.</t>
   </si>
 </sst>
 </file>
@@ -240,9 +300,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D12" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D22" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -252,7 +316,7 @@
     <tableColumn id="1" xr3:uid="{104BDB0B-BC58-459C-A5EA-6A69C64F76DD}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4260D19F-455B-45EE-8A74-9E527611F6B1}" name="Duration (hrs)" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{157739E0-BC7E-4840-BCB6-140A9E872189}" name="Task" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{33D5543C-0D30-4EB4-A1FE-20848B16834D}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{33D5543C-0D30-4EB4-A1FE-20848B16834D}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,16 +585,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -541,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.25">
@@ -558,10 +622,10 @@
         <v>0.125</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -572,10 +636,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -586,10 +650,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -600,10 +664,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -614,10 +678,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.25">
@@ -628,10 +692,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.25">
@@ -642,10 +706,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.25">
@@ -656,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.25">
@@ -670,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.25">
@@ -684,10 +748,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.25">
@@ -698,10 +762,150 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B13" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="96" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B21" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/time_log.xlsx
+++ b/time_log.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34754e9af95e6a34/Desktop/hw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34754e9af95e6a34/Desktop/hw/cisc 4900/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{74E3A1F1-DFBE-4726-89FE-3235AC952ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05211DBB-174E-437D-8858-38D3C5CC43D8}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{74E3A1F1-DFBE-4726-89FE-3235AC952ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46BFC065-A7D7-4515-95F2-DF8330C3BBBD}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -174,6 +175,72 @@
   </si>
   <si>
     <t>Looked over everything made sure everything worked in the simulation and nothing was overlapping or anything.</t>
+  </si>
+  <si>
+    <t>Researched how to download the app</t>
+  </si>
+  <si>
+    <t>Setting up Apple developer account</t>
+  </si>
+  <si>
+    <t>Apple developer certificates</t>
+  </si>
+  <si>
+    <t>Bug fixes</t>
+  </si>
+  <si>
+    <t>user input</t>
+  </si>
+  <si>
+    <t>TextField formatting</t>
+  </si>
+  <si>
+    <t>Research on photo check deposit</t>
+  </si>
+  <si>
+    <t>Research on API's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempt at implementation </t>
+  </si>
+  <si>
+    <t>watched some videos on YouTube on how to download an app onto a device from Xcode, all mentioned an apple developer account</t>
+  </si>
+  <si>
+    <t>Set up the apple developer account and paid the yearly fee for the distribution license, this license is also needed for any development tools.</t>
+  </si>
+  <si>
+    <t>Had to make a certificate signing request from they "Keychain" on the mac. Then had to upload that file that was generated on apple developer website and generate a developer certificate to distribute the app</t>
+  </si>
+  <si>
+    <t>fixed the color and other minor things after playing with the app on the phone and seeing what it really looked like</t>
+  </si>
+  <si>
+    <t>Before even attempting coding I watched a lot of videos and did some reading on how to add user input in Xcode and what would be the best way to go about it for the type of input I needed</t>
+  </si>
+  <si>
+    <t>After adding the TextField and had user input set up, I needed to format the the input to make it adhear to the type of number being inputted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a feature where it just opens the camera isn't hard at all, just like many things it is built into xcode. Onlt thing is I would have to get another certificate from apple to access the camera </t>
+  </si>
+  <si>
+    <t>It looks like the easiest way to imlement a camera detecting handwritten numbers would be with some 3rd party api.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After seeing what I would need I realized not only was I not capable skill wise but also I was running out of time </t>
+  </si>
+  <si>
+    <t>Reinstalled and tested again</t>
+  </si>
+  <si>
+    <t>Chaning the color seemed to have fixed the bug where certain elemetnts fo the app were gray</t>
+  </si>
+  <si>
+    <t>Reviewd the code</t>
+  </si>
+  <si>
+    <t>Went over all the pages and views and reviewd every line to make sure my code didn't work by accident and was neat and concise.</t>
   </si>
 </sst>
 </file>
@@ -305,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D22" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D33" xr:uid="{5D83D896-F8A6-4BEA-BD67-79968297312C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -585,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +975,160 @@
         <v>45</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B28" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
